--- a/final_outputs/UK_Scenarios_Full_Expensing.xlsx
+++ b/final_outputs/UK_Scenarios_Full_Expensing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\international-tax-competitiveness-index\final_outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A2DA259A-7D21-42B1-BBA1-684A2268AA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED003AC-E8C0-420F-BF86-EDBB252FC4E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{360EB56B-A08E-4696-83DC-FF14726A22E9}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +105,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
